--- a/Phase2 Use Case 6 Cluster Online.xlsx
+++ b/Phase2 Use Case 6 Cluster Online.xlsx
@@ -559,6 +559,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -571,36 +661,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -624,66 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,926 +1068,1092 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="86.25" thickTop="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="24">
         <v>42837</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="33" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="27" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="85.5">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="86.25" thickBot="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="11"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="86.25" thickTop="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="24">
         <v>42837</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="33" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="10"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="129" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="11"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="90" customHeight="1" thickTop="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="24">
         <v>42837</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="33" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="10"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="97.5" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
       <c r="P9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="93" customHeight="1" thickBot="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="11"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:20" ht="122.25" customHeight="1" thickTop="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="24">
         <v>42837</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="33" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27" t="s">
         <v>54</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="10"/>
+      <c r="T11" s="15"/>
     </row>
     <row r="12" spans="1:20" ht="95.25" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="98.25" customHeight="1" thickBot="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="11"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="103.5" customHeight="1" thickTop="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="24">
         <v>42837</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="33" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27" t="s">
         <v>58</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="10"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:20" ht="137.25" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:20" ht="96.75" customHeight="1" thickBot="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="11"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="114.75" customHeight="1" thickTop="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="24">
         <v>42837</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="33" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="27" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="10"/>
+      <c r="T17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="84" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="96" customHeight="1" thickBot="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="11"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="72.75" thickTop="1" thickBot="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="24">
         <v>42837</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="33" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="27" t="s">
         <v>67</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S20" s="35" t="s">
+      <c r="S20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="30"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:20" ht="62.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="30"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="31"/>
     </row>
     <row r="22" spans="1:20" ht="138.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="24">
         <v>42837</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="33" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="27" t="s">
         <v>74</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q22" s="33" t="s">
+      <c r="Q22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="35" t="s">
+      <c r="S22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="30"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="1:20" ht="60.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="30"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="24" spans="1:20" ht="72.75" thickTop="1" thickBot="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="24">
         <v>42837</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="33" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="27" t="s">
         <v>77</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q24" s="33" t="s">
+      <c r="Q24" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="S24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T24" s="30"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" spans="1:20" ht="72.75" thickTop="1" thickBot="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="30"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" spans="1:20" ht="100.5" thickTop="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="34">
         <v>42837</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6" t="s">
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="40" t="s">
         <v>83</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="10"/>
+      <c r="T26" s="15"/>
     </row>
     <row r="27" spans="1:20" ht="72" thickBot="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
       <c r="P27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="11"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="190">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
@@ -2012,172 +2178,6 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
